--- a/Data/SPLIT-QCD-22/index.xlsx
+++ b/Data/SPLIT-QCD-22/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programing\00 My-Github\07 QCDD_Code\QCDD-2022-requirements\Data\SPLIT-QCD-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D373351-5409-4DC3-A08E-BF0E14E3E00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EEDB35-9504-401D-B1AC-68290CD9910A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15165" yWindow="2925" windowWidth="10485" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="870" windowWidth="10485" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>data-ID</t>
-  </si>
-  <si>
-    <t>file-Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>title</t>
   </si>
@@ -66,7 +60,211 @@
     <t>HOTEL Buildings</t>
   </si>
   <si>
-    <t>page-Num</t>
+    <t>6.0.pdf</t>
+  </si>
+  <si>
+    <t>DORMITORY Buildings</t>
+  </si>
+  <si>
+    <t>7.0.pdf</t>
+  </si>
+  <si>
+    <t>8.0.pdf</t>
+  </si>
+  <si>
+    <t>ACCOMMODATION Buildings</t>
+  </si>
+  <si>
+    <t>APARTMENT Buildings</t>
+  </si>
+  <si>
+    <t>9.0.pdf</t>
+  </si>
+  <si>
+    <t>10.0.pdf</t>
+  </si>
+  <si>
+    <t>11.0.pdf</t>
+  </si>
+  <si>
+    <t>11.1.pdf</t>
+  </si>
+  <si>
+    <t>Mercantile Occupancies</t>
+  </si>
+  <si>
+    <t>Business Occupancies</t>
+  </si>
+  <si>
+    <t>Industrial Occupancies</t>
+  </si>
+  <si>
+    <t>Aircraft Servicing Hangars</t>
+  </si>
+  <si>
+    <t>Parking Structures</t>
+  </si>
+  <si>
+    <t>Bulk Storage Facilities</t>
+  </si>
+  <si>
+    <t>Aircraft Storage Hangars</t>
+  </si>
+  <si>
+    <t>Open-Sides Storage Buildings</t>
+  </si>
+  <si>
+    <t>Storage Occupancies</t>
+  </si>
+  <si>
+    <t>12.0.pdf</t>
+  </si>
+  <si>
+    <t>12.1.pdf</t>
+  </si>
+  <si>
+    <t>12.2.pdf</t>
+  </si>
+  <si>
+    <t>12.3.pdf</t>
+  </si>
+  <si>
+    <t>12.4.pdf</t>
+  </si>
+  <si>
+    <t>FLS_A1</t>
+  </si>
+  <si>
+    <t>13.0.pdf</t>
+  </si>
+  <si>
+    <t>REFUGE FLOORS</t>
+  </si>
+  <si>
+    <t>FLS_A2</t>
+  </si>
+  <si>
+    <t>14.0.pdf</t>
+  </si>
+  <si>
+    <t>SMOKE-STOP AND FIREFIGHTING LOBBIES</t>
+  </si>
+  <si>
+    <t>FLS_A3</t>
+  </si>
+  <si>
+    <t>FLS_A4</t>
+  </si>
+  <si>
+    <t>15.0.pdf</t>
+  </si>
+  <si>
+    <t>EXTERNAL ACCESS TO SITE AND BUILDING</t>
+  </si>
+  <si>
+    <t>FIRE LIFTS / FIRE SERVICE ACCESS ELEVATORS</t>
+  </si>
+  <si>
+    <t>FIRE (EMERGENCY) COMMAND CENTER</t>
+  </si>
+  <si>
+    <t>FIRE PUMPS AND FIRE PUMPS ROOM</t>
+  </si>
+  <si>
+    <t>ELECTRICAL ROOM</t>
+  </si>
+  <si>
+    <t>SUBSTATIONS</t>
+  </si>
+  <si>
+    <t>FIREFIGHTING SYSTEM NOTES</t>
+  </si>
+  <si>
+    <t>FIREFIGHTING SYSTEM GUIDELINES</t>
+  </si>
+  <si>
+    <t>FIRE ALARM SYSTEM NOTES</t>
+  </si>
+  <si>
+    <t>FIRE ALARM SYSTEM GUIDELINES</t>
+  </si>
+  <si>
+    <t>ACMV NOTES AND GUIDELINES</t>
+  </si>
+  <si>
+    <t>16.0.pdf</t>
+  </si>
+  <si>
+    <t>17.0.pdf</t>
+  </si>
+  <si>
+    <t>18.0.pdf</t>
+  </si>
+  <si>
+    <t>19.0.pdf</t>
+  </si>
+  <si>
+    <t>20.0.pdf</t>
+  </si>
+  <si>
+    <t>21.0.pdf</t>
+  </si>
+  <si>
+    <t>22.0.pdf</t>
+  </si>
+  <si>
+    <t>23.0.pdf</t>
+  </si>
+  <si>
+    <t>24.0.pdf</t>
+  </si>
+  <si>
+    <t>25.0.pdf</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>26.0.pdf</t>
+  </si>
+  <si>
+    <t>FLS_A5</t>
+  </si>
+  <si>
+    <t>FLS_A6</t>
+  </si>
+  <si>
+    <t>FLS_A7</t>
+  </si>
+  <si>
+    <t>FLS_A8</t>
+  </si>
+  <si>
+    <t>FFS_N1</t>
+  </si>
+  <si>
+    <t>FFS_G1</t>
+  </si>
+  <si>
+    <t>FAS_N1</t>
+  </si>
+  <si>
+    <t>FAS_G1</t>
+  </si>
+  <si>
+    <t>ACMV_N1</t>
+  </si>
+  <si>
+    <t>R_00</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>dataID</t>
+  </si>
+  <si>
+    <t>pageNum</t>
   </si>
 </sst>
 </file>
@@ -76,10 +274,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -396,30 +600,30 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -427,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -441,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>19</v>
@@ -455,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>37</v>
@@ -469,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>69</v>
@@ -483,92 +687,378 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>127</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>165</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>191</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>215</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>235</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>259</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>261</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>281</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A16" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1">
+        <v>429</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -586,6 +1076,8 @@
       <c r="A37" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>